--- a/Data Sources/REPD (Operational Corrections)/CountyLookup.xlsx
+++ b/Data Sources/REPD (Operational Corrections)/CountyLookup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/ScottishEnergyStatsProcessing/Data Sources/REPD (Operational Corrections)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\GitHub\ScottishEnergyStatsProcessing\Data Sources\REPD (Operational Corrections)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{896B6D38-603D-4586-A0CF-3BDCE8CF6F0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{92DA5F64-56B6-4082-AF4E-DED5CD8369C4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6636C8-53CB-45F1-9C1B-EF1329C31BBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="79440" yWindow="21555" windowWidth="12075" windowHeight="6000" xr2:uid="{369BE87E-B6A7-4ADD-9C32-60292C761C74}"/>
+    <workbookView xWindow="57480" yWindow="15855" windowWidth="29040" windowHeight="15840" xr2:uid="{369BE87E-B6A7-4ADD-9C32-60292C761C74}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>LA</t>
   </si>
@@ -133,6 +127,12 @@
   </si>
   <si>
     <t>S12000020</t>
+  </si>
+  <si>
+    <t>Offshore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
   </si>
 </sst>
 </file>
@@ -484,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{006382D4-3F0D-4282-90B6-C9634AA68729}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -684,6 +684,17 @@
         <v>32</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
